--- a/Meilenstein 2/Dokumente/Funktionsplan/Hierarchische Funktionsstruktur.xlsx
+++ b/Meilenstein 2/Dokumente/Funktionsplan/Hierarchische Funktionsstruktur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\Funktionsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC71A93-1E17-44BA-A70D-4E69DA2BA6A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E83873F-CD75-4A79-AE87-581FF9451E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{31F0AFB6-32DC-4C9C-BBDF-D78D2629DCF3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Funktionen Unterwasserdrohne</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Funktionen Analyse</t>
   </si>
   <si>
-    <t>Greifwerkzeug bewegen</t>
-  </si>
-  <si>
     <t>Funktionen Fortbewegung</t>
   </si>
   <si>
@@ -130,6 +127,36 @@
   </si>
   <si>
     <t>Wachstumsfortschritt analysieren</t>
+  </si>
+  <si>
+    <t>mit Greifwerkzeug säen</t>
+  </si>
+  <si>
+    <t>mit Greifwerkzeug ernten</t>
+  </si>
+  <si>
+    <t>Autonom Laden</t>
+  </si>
+  <si>
+    <t>niedrigen Ladestand erkennen</t>
+  </si>
+  <si>
+    <t>zur Ladestation zurückkehren</t>
+  </si>
+  <si>
+    <t>während des Ladevorgangs pausieren</t>
+  </si>
+  <si>
+    <t>Funktionen Aktorik</t>
+  </si>
+  <si>
+    <t>Greifwerkzeuge austauschen</t>
+  </si>
+  <si>
+    <t>Greifwerkzeug entfernen</t>
+  </si>
+  <si>
+    <t>Greifwerkzeug befestigen</t>
   </si>
 </sst>
 </file>
@@ -145,7 +172,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,18 +181,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -234,13 +255,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -255,73 +357,37 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -329,7 +395,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -338,46 +404,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -695,7 +789,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="H8:I8"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,235 +799,252 @@
     <col min="4" max="4" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="20"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="15" t="s">
+      <c r="C14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6" t="s">
+      <c r="D16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="16" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B19:B23"/>
-    <mergeCell ref="C19:C20"/>
+  <mergeCells count="15">
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A1:A25"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="B5:B9"/>
     <mergeCell ref="B10:B13"/>
@@ -941,7 +1052,8 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="C5:C8"/>
-    <mergeCell ref="A1:A26"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Meilenstein 2/Dokumente/Funktionsplan/Hierarchische Funktionsstruktur.xlsx
+++ b/Meilenstein 2/Dokumente/Funktionsplan/Hierarchische Funktionsstruktur.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\Funktionsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E83873F-CD75-4A79-AE87-581FF9451E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA214B84-A671-409D-8F3C-82B23570647E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{31F0AFB6-32DC-4C9C-BBDF-D78D2629DCF3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Funktionen Unterwasserdrohne</t>
   </si>
@@ -157,14 +157,34 @@
   </si>
   <si>
     <t>Greifwerkzeug befestigen</t>
+  </si>
+  <si>
+    <t>Auftauchen</t>
+  </si>
+  <si>
+    <t>Abtauchen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Updates installieren</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -186,7 +206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -195,110 +215,70 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -308,90 +288,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -404,74 +301,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -786,275 +676,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C503CB-7A8D-42DD-BC97-D40C8A69B2A5}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="2" t="s">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="2" t="s">
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4" t="s">
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="21"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="6" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="2" t="s">
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="9"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="9"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="6" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="9"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="9"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="6" t="s">
+    <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D16" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="2" t="s">
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="9"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="13" t="s">
+    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="2" t="s">
+    <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="14" t="s">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="21"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="9" t="s">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E23" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8" t="s">
+    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="8" t="s">
+      <c r="K24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="17" t="s">
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="2" t="s">
+    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="17" t="s">
+    <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
+      <c r="C28" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="D28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26" t="s">
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A1:A25"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
+  <mergeCells count="9">
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="C11:C15"/>
+    <mergeCell ref="B2:B29"/>
+    <mergeCell ref="C16:C25"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Meilenstein 2/Dokumente/Funktionsplan/Hierarchische Funktionsstruktur.xlsx
+++ b/Meilenstein 2/Dokumente/Funktionsplan/Hierarchische Funktionsstruktur.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\Funktionsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA214B84-A671-409D-8F3C-82B23570647E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743410C8-00D2-44BC-8977-953486CAD34A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{31F0AFB6-32DC-4C9C-BBDF-D78D2629DCF3}"/>
+    <workbookView xWindow="-21390" yWindow="4740" windowWidth="18900" windowHeight="11130" xr2:uid="{31F0AFB6-32DC-4C9C-BBDF-D78D2629DCF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Funktionen Unterwasserdrohne</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>Updates installieren</t>
+  </si>
+  <si>
+    <t>Kamerabild Übertragen</t>
   </si>
 </sst>
 </file>
@@ -301,66 +304,66 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C503CB-7A8D-42DD-BC97-D40C8A69B2A5}">
-  <dimension ref="B1:K29"/>
+  <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,238 +696,238 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="21"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="F7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="5" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9"/>
+      <c r="B12" s="16"/>
       <c r="C12" s="11"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="4" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="11"/>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="11"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="22" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="11"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="20"/>
+      <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="11"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="4" t="s">
+      <c r="D18" s="20"/>
+      <c r="E18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="4" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
+      <c r="B20" s="16"/>
       <c r="C20" s="11"/>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="11"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="2"/>
+      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="1"/>
+      <c r="E22" s="18"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
+      <c r="B24" s="16"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="6" t="s">
         <v>35</v>
       </c>
       <c r="K24" t="s">
@@ -932,64 +935,76 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="4" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="4" t="s">
+      <c r="B27" s="16"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="16"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="9"/>
-      <c r="C28" s="12" t="s">
+    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="16"/>
+      <c r="C29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D29" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E29" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="4" t="s">
+    <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="13">
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="C11:C15"/>
-    <mergeCell ref="B2:B29"/>
+    <mergeCell ref="B2:B30"/>
     <mergeCell ref="C16:C25"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Meilenstein 2/Dokumente/Funktionsplan/Hierarchische Funktionsstruktur.xlsx
+++ b/Meilenstein 2/Dokumente/Funktionsplan/Hierarchische Funktionsstruktur.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Philipp\Documents\GitHub\MKon\Meilenstein 2\Dokumente\Funktionsplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743410C8-00D2-44BC-8977-953486CAD34A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D90CCBF-A532-4B03-903C-74CA49E1ED1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21390" yWindow="4740" windowWidth="18900" windowHeight="11130" xr2:uid="{31F0AFB6-32DC-4C9C-BBDF-D78D2629DCF3}"/>
+    <workbookView xWindow="22590" yWindow="1605" windowWidth="25170" windowHeight="15555" xr2:uid="{31F0AFB6-32DC-4C9C-BBDF-D78D2629DCF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -320,6 +320,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -351,9 +354,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -682,7 +682,7 @@
   <dimension ref="B1:K30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,13 +696,13 @@
   <sheetData>
     <row r="1" spans="2:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -710,36 +710,36 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="17"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -747,9 +747,9 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
@@ -757,9 +757,9 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="16"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="6" t="s">
         <v>12</v>
       </c>
@@ -769,9 +769,9 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
@@ -781,23 +781,23 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="15"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -809,9 +809,9 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="6" t="s">
         <v>18</v>
       </c>
@@ -821,9 +821,9 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="7" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -835,24 +835,24 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="10" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="19" t="s">
@@ -863,33 +863,33 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="20"/>
       <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="12"/>
       <c r="D18" s="20"/>
       <c r="E18" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="12"/>
       <c r="D19" s="21"/>
       <c r="E19" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="11" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="6" t="s">
@@ -897,26 +897,26 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -924,9 +924,9 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="16"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="6" t="s">
         <v>35</v>
       </c>
@@ -935,19 +935,19 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="16"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="17"/>
+      <c r="C26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="6" t="s">
@@ -955,24 +955,24 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="11"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="16"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="17"/>
+      <c r="C29" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -983,15 +983,15 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
-      <c r="C30" s="4"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="13"/>
       <c r="D30" s="4"/>
       <c r="E30" s="6" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="D13:D15"/>
     <mergeCell ref="C11:C15"/>
     <mergeCell ref="B2:B30"/>
@@ -1005,6 +1005,8 @@
     <mergeCell ref="D26:D28"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
